--- a/marta_video.xlsx
+++ b/marta_video.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tonko\PycharmProjects\Jammerbugten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tonko\Documents\GitHub\jammerbugt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F97F41-BB9D-411F-ABC2-33267CAE45A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7058FBC9-337D-4B15-B2F8-1E237D6539A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="3135" windowWidth="16410" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16320" yWindow="-7605" windowWidth="16440" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="marta_video" sheetId="1" r:id="rId1"/>
@@ -27456,8 +27456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K1236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1145" workbookViewId="0">
-      <selection activeCell="I1154" sqref="I1154"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
